--- a/GaneshSoley/Supply Chain Management Bot Challenge/Data/Config.xlsx
+++ b/GaneshSoley/Supply Chain Management Bot Challenge/Data/Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>GaneshSoley_GMail_Credentials</t>
+  </si>
+  <si>
+    <t>Gmail_SMTP_Port</t>
+  </si>
+  <si>
+    <t>Gmail_SMTP_Server</t>
+  </si>
+  <si>
+    <t>smtp.gmail.com</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -657,8 +666,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/GaneshSoley/Supply Chain Management Bot Challenge/Data/Config.xlsx
+++ b/GaneshSoley/Supply Chain Management Bot Challenge/Data/Config.xlsx
@@ -138,9 +138,6 @@
     <t>To-Mail</t>
   </si>
   <si>
-    <t>ganeshsoley@gmail.com</t>
-  </si>
-  <si>
     <t>GaneshSoley_GMail</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>smtp.gmail.com</t>
+  </si>
+  <si>
+    <t>pjha35@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,7 +552,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -655,20 +655,20 @@
         <v>38</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>465</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1669,11 +1669,8 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GaneshSoley/Supply Chain Management Bot Challenge/Data/Config.xlsx
+++ b/GaneshSoley/Supply Chain Management Bot Challenge/Data/Config.xlsx
@@ -153,7 +153,7 @@
     <t>smtp.gmail.com</t>
   </si>
   <si>
-    <t>pjha35@gmail.com</t>
+    <t>yesavi@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,7 +552,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1669,8 +1669,11 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
